--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H2">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I2">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J2">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N2">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q2">
-        <v>1.818477180380667</v>
+        <v>1.364263468736</v>
       </c>
       <c r="R2">
-        <v>16.366294623426</v>
+        <v>12.278371218624</v>
       </c>
       <c r="S2">
-        <v>0.06141795186270105</v>
+        <v>0.0267367777657911</v>
       </c>
       <c r="T2">
-        <v>0.06141795186270106</v>
+        <v>0.0267367777657911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H3">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I3">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J3">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.159712</v>
       </c>
       <c r="O3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q3">
-        <v>7.178876411203556</v>
+        <v>12.30251559714134</v>
       </c>
       <c r="R3">
-        <v>64.609887700832</v>
+        <v>110.722640374272</v>
       </c>
       <c r="S3">
-        <v>0.2424621494338922</v>
+        <v>0.2411041804012405</v>
       </c>
       <c r="T3">
-        <v>0.2424621494338922</v>
+        <v>0.2411041804012405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H4">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I4">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J4">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N4">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O4">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P4">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q4">
-        <v>14.70809470846889</v>
+        <v>31.31541806074134</v>
       </c>
       <c r="R4">
-        <v>132.37285237622</v>
+        <v>281.838762546672</v>
       </c>
       <c r="S4">
-        <v>0.4967568812756241</v>
+        <v>0.6137182388300859</v>
       </c>
       <c r="T4">
-        <v>0.4967568812756242</v>
+        <v>0.6137182388300859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H5">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I5">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J5">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N5">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O5">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P5">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q5">
-        <v>0.992701372891778</v>
+        <v>0.2729078566506667</v>
       </c>
       <c r="R5">
-        <v>8.934312356026002</v>
+        <v>2.456170709856</v>
       </c>
       <c r="S5">
-        <v>0.03352788024622971</v>
+        <v>0.005348436633407528</v>
       </c>
       <c r="T5">
-        <v>0.03352788024622973</v>
+        <v>0.005348436633407529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I6">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J6">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N6">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O6">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P6">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q6">
-        <v>0.228463482874</v>
+        <v>0.100016059556</v>
       </c>
       <c r="R6">
-        <v>2.056171345866</v>
+        <v>0.900144536004</v>
       </c>
       <c r="S6">
-        <v>0.007716214063573265</v>
+        <v>0.001960110505514363</v>
       </c>
       <c r="T6">
-        <v>0.007716214063573267</v>
+        <v>0.001960110505514363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I7">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J7">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.159712</v>
       </c>
       <c r="O7">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P7">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q7">
         <v>0.9019145941013333</v>
@@ -883,10 +883,10 @@
         <v>8.117231346912002</v>
       </c>
       <c r="S7">
-        <v>0.03046161245377164</v>
+        <v>0.01767568407336532</v>
       </c>
       <c r="T7">
-        <v>0.03046161245377165</v>
+        <v>0.01767568407336532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I8">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J8">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N8">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O8">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P8">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q8">
-        <v>1.847844218113333</v>
+        <v>2.295777017826333</v>
       </c>
       <c r="R8">
-        <v>16.63059796302</v>
+        <v>20.661993160437</v>
       </c>
       <c r="S8">
-        <v>0.06240980555725083</v>
+        <v>0.04499254090729548</v>
       </c>
       <c r="T8">
-        <v>0.06240980555725086</v>
+        <v>0.04499254090729548</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I9">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J9">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N9">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O9">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P9">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q9">
-        <v>0.1247175469406667</v>
+        <v>0.02000725598066666</v>
       </c>
       <c r="R9">
-        <v>1.122457922466</v>
+        <v>0.180065303826</v>
       </c>
       <c r="S9">
-        <v>0.004212258683846975</v>
+        <v>0.0003921013566052572</v>
       </c>
       <c r="T9">
-        <v>0.004212258683846976</v>
+        <v>0.0003921013566052573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H10">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I10">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J10">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N10">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O10">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P10">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q10">
-        <v>0.1214589888893333</v>
+        <v>0.07272933438400001</v>
       </c>
       <c r="R10">
-        <v>1.093130900004</v>
+        <v>0.654564009456</v>
       </c>
       <c r="S10">
-        <v>0.004102202883478495</v>
+        <v>0.001425346419545013</v>
       </c>
       <c r="T10">
-        <v>0.004102202883478497</v>
+        <v>0.001425346419545013</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H11">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I11">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J11">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.159712</v>
       </c>
       <c r="O11">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P11">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q11">
-        <v>0.4794885961031111</v>
+        <v>0.6558511542186668</v>
       </c>
       <c r="R11">
-        <v>4.315397364928</v>
+        <v>5.902660387968001</v>
       </c>
       <c r="S11">
-        <v>0.01619443335990078</v>
+        <v>0.0128533431845307</v>
       </c>
       <c r="T11">
-        <v>0.01619443335990079</v>
+        <v>0.0128533431845307</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H12">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I12">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J12">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N12">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O12">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P12">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q12">
-        <v>0.9823770850977777</v>
+        <v>1.669435240118667</v>
       </c>
       <c r="R12">
-        <v>8.841393765879999</v>
+        <v>15.024917161068</v>
       </c>
       <c r="S12">
-        <v>0.03317918375578718</v>
+        <v>0.03271752123568026</v>
       </c>
       <c r="T12">
-        <v>0.03317918375578719</v>
+        <v>0.03271752123568026</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H13">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I13">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J13">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N13">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O13">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P13">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q13">
-        <v>0.06630410671155555</v>
+        <v>0.01454880762933333</v>
       </c>
       <c r="R13">
-        <v>0.596736960404</v>
+        <v>0.130939268664</v>
       </c>
       <c r="S13">
-        <v>0.002239380553269992</v>
+        <v>0.0002851269166527868</v>
       </c>
       <c r="T13">
-        <v>0.002239380553269993</v>
+        <v>0.0002851269166527869</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H14">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I14">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J14">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N14">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O14">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P14">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q14">
-        <v>0.011597685836</v>
+        <v>0.001216108002666667</v>
       </c>
       <c r="R14">
-        <v>0.104379172524</v>
+        <v>0.010944972024</v>
       </c>
       <c r="S14">
-        <v>0.0003917047285933326</v>
+        <v>2.383323320723669E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003917047285933326</v>
+        <v>2.383323320723669E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H15">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I15">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J15">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.159712</v>
       </c>
       <c r="O15">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P15">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q15">
-        <v>0.04578465661866666</v>
+        <v>0.01096649438577778</v>
       </c>
       <c r="R15">
-        <v>0.412061909568</v>
+        <v>0.098698449472</v>
       </c>
       <c r="S15">
-        <v>0.001546348706815734</v>
+        <v>0.0002149208932010737</v>
       </c>
       <c r="T15">
-        <v>0.001546348706815734</v>
+        <v>0.0002149208932010737</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H16">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I16">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J16">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N16">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O16">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P16">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q16">
-        <v>0.09380368558666666</v>
+        <v>0.02791464506911111</v>
       </c>
       <c r="R16">
-        <v>0.8442331702799999</v>
+        <v>0.251231805622</v>
       </c>
       <c r="S16">
-        <v>0.003168161969841064</v>
+        <v>0.0005470700335582956</v>
       </c>
       <c r="T16">
-        <v>0.003168161969841065</v>
+        <v>0.0005470700335582954</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H17">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I17">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J17">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N17">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O17">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P17">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q17">
-        <v>0.006331142769333333</v>
+        <v>0.0002432707728888889</v>
       </c>
       <c r="R17">
-        <v>0.05698028492399999</v>
+        <v>0.002189436956</v>
       </c>
       <c r="S17">
-        <v>0.0002138304654234948</v>
+        <v>4.767610319192025E-06</v>
       </c>
       <c r="T17">
-        <v>0.0002138304654234949</v>
+        <v>4.767610319192025E-06</v>
       </c>
     </row>
   </sheetData>
